--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -311,7 +311,13 @@
     <t>all</t>
   </si>
   <si>
-    <t>Don't scale to 1990-1991 drop so as to be closer to EMEP trend</t>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Don't scale 1981 to avoid reporting mistake in inventory</t>
+  </si>
+  <si>
+    <t>Scale from 2000 so as to be closer to EMEP trend</t>
   </si>
 </sst>
 </file>
@@ -367,8 +373,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -613,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -732,6 +758,16 @@
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -850,6 +886,16 @@
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1186,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2139,15 +2185,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2170,10 +2216,13 @@
         <v>92</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2190,13 +2239,45 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="G2">
         <v>2010</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1982</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Scale from 2000 so as to be closer to EMEP trend</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>Avoid imlied Nox EF dip 1986-1989</t>
   </si>
 </sst>
 </file>
@@ -373,8 +379,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -639,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="265">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -768,6 +782,10 @@
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -896,6 +914,10 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2185,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2278,6 +2300,35 @@
       </c>
       <c r="I3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1990</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>2D_Degreasing-Cleaning</t>
-  </si>
-  <si>
-    <t>Shipping</t>
   </si>
   <si>
     <t>3I_Agriculture-other</t>
@@ -1254,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1314,7 +1311,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1483,10 +1480,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1495,7 +1492,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1548,7 +1545,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1557,7 +1554,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1566,7 +1563,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1590,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1608,7 +1605,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1623,10 +1620,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1647,9 +1644,6 @@
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -1657,10 +1651,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -1669,10 +1663,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1685,10 +1679,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
@@ -1710,7 +1704,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1726,10 +1720,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -1751,10 +1745,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -1765,10 +1759,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -1789,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
@@ -1799,10 +1793,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
@@ -1817,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
@@ -1827,10 +1821,10 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1838,10 +1832,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1864,7 +1858,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1876,7 +1870,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
@@ -1884,7 +1878,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="2"/>
@@ -2209,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2229,27 +2223,27 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2270,15 +2264,15 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2299,15 +2293,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2328,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>1A3c_Rail</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4a_Commercial-institutional</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Avoid imlied Nox EF dip 1986-1989</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -1278,20 +1278,20 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1394,17 +1394,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1414,216 +1414,216 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1642,31 +1642,31 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -1780,23 +1780,23 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
@@ -1808,23 +1808,23 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1832,10 +1832,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="2"/>
@@ -2203,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2223,27 +2223,27 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2264,15 +2264,15 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2293,15 +2293,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="2280" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -2130,7 +2130,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2190,7 +2189,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2201,15 +2199,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2232,13 +2230,10 @@
         <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2261,13 +2256,10 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2290,13 +2282,10 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2319,15 +2308,11 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
